--- a/Tables/Alpha_group_significance_Stream.xlsx
+++ b/Tables/Alpha_group_significance_Stream.xlsx
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.077441077441094</v>
+        <v>5.824242424242443</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01369189616538225</v>
+        <v>0.01580677460730209</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.09348600311378276</v>
+        <v>0.1042698707275791</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -444,13 +444,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.529616724738673</v>
+        <v>5.338954703832769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01869720062275656</v>
+        <v>0.02085397414551581</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.09348600311378276</v>
+        <v>0.1042698707275791</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -461,22 +461,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A (n=5)</t>
+          <t>H (n=27)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H (n=27)</t>
+          <t>J (n=27)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.394612794612783</v>
+        <v>4.062027684249927</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06540971903742436</v>
+        <v>0.04385780613755715</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.1635242975935609</v>
+        <v>0.1461926871251905</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,19 +487,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A (n=5)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>H (n=27)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>J (n=27)</t>
-        </is>
-      </c>
       <c r="C5" t="n">
-        <v>3.855518144407029</v>
+        <v>3.394612794612783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04958260976434615</v>
+        <v>0.06540971903742436</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0.1635242975935609</v>
@@ -539,22 +539,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>H (n=27)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>S (n=35)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>T (n=4)</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>1.928571428571445</v>
+        <v>1.762106324011086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1649148225532956</v>
+        <v>0.1843620084122517</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.274858037588826</v>
+        <v>0.2633742977317882</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -565,22 +565,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>H (n=27)</t>
+          <t>S (n=35)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S (n=35)</t>
+          <t>T (n=4)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.687528344671222</v>
+        <v>1.928571428571445</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1939271084299195</v>
+        <v>0.1649148225532956</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.2770387263284564</v>
+        <v>0.2633742977317882</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.003472222222214</v>
+        <v>1.125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3164717878479773</v>
+        <v>0.2888443663464818</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.3955897348099716</v>
+        <v>0.3610554579331022</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -617,22 +617,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A (n=5)</t>
+          <t>J (n=27)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T (n=4)</t>
+          <t>S (n=35)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5400000000000027</v>
+        <v>0.4741244646006635</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4624327264504752</v>
+        <v>0.4910958161831776</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.5091431693941095</v>
+        <v>0.5456620179813084</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -643,22 +643,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>J (n=27)</t>
+          <t>A (n=5)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S (n=35)</t>
+          <t>T (n=4)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4358276643990848</v>
+        <v>0.240000000000002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5091431693941095</v>
+        <v>0.6242061147664044</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.5091431693941095</v>
+        <v>0.6242061147664044</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26.00047892720307</v>
+        <v>26.67432950191571</v>
       </c>
       <c r="D13" t="n">
-        <v>3.41332671921846e-07</v>
+        <v>2.407995043080524e-07</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>1.195329918280768e-06</v>
+        <v>9.540333889063698e-07</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25.90521541950116</v>
+        <v>26.34058956916099</v>
       </c>
       <c r="D14" t="n">
-        <v>3.585989754842305e-07</v>
+        <v>2.862100166719109e-07</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>1.195329918280768e-06</v>
+        <v>9.540333889063698e-07</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.1142857142857</v>
+        <v>15.55555555555557</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000101194605245838</v>
+        <v>8.011587656029265e-05</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.0002529865131145949</v>
+        <v>0.0002002896914007316</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13.11188811188811</v>
+        <v>12.87982387982388</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0002934278077338205</v>
+        <v>0.0003321434948157462</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.000586855615467641</v>
+        <v>0.0006642869896314924</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.47272727272727</v>
+        <v>10.76565656565656</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00121149736543063</v>
+        <v>0.001034008775208132</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.002019162275717717</v>
+        <v>0.001723347958680221</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.452510586811854</v>
+        <v>10.38173018753781</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002108602811171743</v>
+        <v>0.001272683754682938</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.003012289730245348</v>
+        <v>0.001818119649547055</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -860,13 +860,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.681136794240245</v>
+        <v>7.239151193633972</v>
       </c>
       <c r="D19" t="n">
-        <v>0.005580100546048133</v>
+        <v>0.007133069373914006</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.006975125682560166</v>
+        <v>0.008916336717392507</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.699594770242385</v>
+        <v>2.725208349262175</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05442568464899194</v>
+        <v>0.09877523127984016</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.06047298294332438</v>
+        <v>0.1097502569776002</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.04791378833931503</v>
+        <v>0.1593257806023587</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8267340348832932</v>
+        <v>0.6897780140551726</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.8267340348832932</v>
+        <v>0.6897780140551726</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>

--- a/Tables/Alpha_group_significance_Stream.xlsx
+++ b/Tables/Alpha_group_significance_Stream.xlsx
@@ -418,10 +418,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.824242424242443</v>
+        <v>6.077441077441094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01580677460730209</v>
+        <v>0.01369189616538225</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0.1042698707275791</v>
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.062027684249927</v>
+        <v>3.92375607931163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04385780613755715</v>
+        <v>0.04760839904858885</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.1461926871251905</v>
+        <v>0.1586946634952962</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.762106324011086</v>
+        <v>2.11766187956664</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1843620084122517</v>
+        <v>0.1456086860766828</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.2633742977317882</v>
+        <v>0.2355926036475652</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         <v>0.1649148225532956</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.2633742977317882</v>
+        <v>0.2355926036475652</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.125</v>
+        <v>0.78125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2888443663464818</v>
+        <v>0.3767591178115821</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.3610554579331022</v>
+        <v>0.4709488972644776</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -626,13 +626,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4741244646006635</v>
+        <v>0.5140337616528257</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4910958161831776</v>
+        <v>0.4733978659511898</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.5456620179813084</v>
+        <v>0.5259976288346554</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26.67432950191571</v>
+        <v>26.00047892720307</v>
       </c>
       <c r="D13" t="n">
-        <v>2.407995043080524e-07</v>
+        <v>3.41332671921846e-07</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>9.540333889063698e-07</v>
+        <v>1.61015191953585e-06</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26.34058956916099</v>
+        <v>25.33036029226509</v>
       </c>
       <c r="D14" t="n">
-        <v>2.862100166719109e-07</v>
+        <v>4.83045575860755e-07</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>9.540333889063698e-07</v>
+        <v>1.61015191953585e-06</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.55555555555557</v>
+        <v>15.85326278659613</v>
       </c>
       <c r="D15" t="n">
-        <v>8.011587656029265e-05</v>
+        <v>6.844841641823441e-05</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.0002002896914007316</v>
+        <v>0.000171121041045586</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12.87982387982388</v>
+        <v>12.42191142191143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003321434948157462</v>
+        <v>0.0004243257166528645</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.0006642869896314924</v>
+        <v>0.000848651433305729</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10.38173018753781</v>
+        <v>9.655239631646142</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001272683754682938</v>
+        <v>0.001888122618405825</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.001818119649547055</v>
+        <v>0.002697318026294037</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -860,13 +860,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.239151193633972</v>
+        <v>6.810261462675271</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007133069373914006</v>
+        <v>0.009063549271418113</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.008916336717392507</v>
+        <v>0.01132943658927264</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.725208349262175</v>
+        <v>2.528863062925325</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09877523127984016</v>
+        <v>0.1117807311326991</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.1097502569776002</v>
+        <v>0.1242008123696657</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1593257806023587</v>
+        <v>0.1805471124619941</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6897780140551726</v>
+        <v>0.6709034817717459</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.6897780140551726</v>
+        <v>0.6709034817717459</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
